--- a/assets/formulaire_cma_jury_these.xlsx
+++ b/assets/formulaire_cma_jury_these.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcp/Documents/jcp_local/mettre_a_jour/texte/Admin/ED IAEM/CMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcp/BUL/CMA - ED IAEM/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A125B45E-0E85-304D-B8EA-B7A8473A23ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E9363E-A19C-964C-9352-21F997BC54A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21320" xr2:uid="{9EDA3B33-73CE-3A49-9129-2985BC5958A9}"/>
   </bookViews>
@@ -142,9 +142,6 @@
     <t>Examinateur 1 (Obligatoire)</t>
   </si>
   <si>
-    <t>Examinateur 2 (Obligatoire)</t>
-  </si>
-  <si>
     <t>Ingénieur (docteur)</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>Date Prévisionnelle de Soutenance</t>
+  </si>
+  <si>
+    <t>Examinateur 2</t>
   </si>
 </sst>
 </file>
@@ -171,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +262,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -510,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -536,16 +543,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,16 +561,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -572,44 +573,32 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -620,90 +609,105 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,14 +717,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,7 +1172,7 @@
   <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,26 +1195,26 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -1292,7 +1302,7 @@
     <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="15"/>
@@ -1310,697 +1320,700 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
     </row>
     <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="55"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="56"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="19"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="58"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="56"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="41"/>
     </row>
     <row r="37" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="19"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="58"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="43"/>
     </row>
     <row r="44" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A44" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="56"/>
+      <c r="A44" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="70"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="41"/>
     </row>
     <row r="45" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="19"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="19"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="19"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="17"/>
     </row>
     <row r="49" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="19"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="58"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="43"/>
     </row>
     <row r="52" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="56"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="41"/>
     </row>
     <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="25" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="25" t="s">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="19"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25" t="s">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="19"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25" t="s">
+      <c r="A56" s="22"/>
+      <c r="B56" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="19"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="19"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="17"/>
     </row>
     <row r="59" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A59" s="57"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="58"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="43"/>
     </row>
     <row r="60" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A60" s="60" t="s">
+      <c r="A60" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="41"/>
     </row>
     <row r="61" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25" t="s">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="19"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25" t="s">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="19"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="17"/>
     </row>
     <row r="63" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25" t="s">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="19"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="17"/>
     </row>
     <row r="64" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25" t="s">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="19"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="17"/>
     </row>
     <row r="66" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25" t="s">
+      <c r="A66" s="22"/>
+      <c r="B66" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="19"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="17"/>
     </row>
     <row r="67" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A67" s="57"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="58"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="43"/>
     </row>
     <row r="68" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="56"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="41"/>
     </row>
     <row r="69" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25" t="s">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="17"/>
     </row>
     <row r="70" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25" t="s">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="19"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="17"/>
     </row>
     <row r="71" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A71" s="24"/>
-      <c r="B71" s="25" t="s">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="19"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="17"/>
     </row>
     <row r="72" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25" t="s">
+      <c r="A72" s="22"/>
+      <c r="B72" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="19"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="17"/>
     </row>
     <row r="73" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A73" s="24"/>
-      <c r="B73" s="25" t="s">
+      <c r="A73" s="22"/>
+      <c r="B73" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="17"/>
     </row>
     <row r="74" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25" t="s">
+      <c r="A74" s="22"/>
+      <c r="B74" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="19"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="17"/>
     </row>
     <row r="75" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A75" s="57"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="58"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="43"/>
     </row>
     <row r="76" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="56"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="41"/>
     </row>
     <row r="77" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25" t="s">
+      <c r="A77" s="22"/>
+      <c r="B77" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="19"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="17"/>
     </row>
     <row r="78" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
-      <c r="B78" s="25" t="s">
+      <c r="A78" s="22"/>
+      <c r="B78" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="19"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="17"/>
     </row>
     <row r="79" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A79" s="24"/>
-      <c r="B79" s="25" t="s">
+      <c r="A79" s="22"/>
+      <c r="B79" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="19"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="17"/>
     </row>
     <row r="80" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
-      <c r="B80" s="25" t="s">
+      <c r="A80" s="22"/>
+      <c r="B80" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="19"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="17"/>
     </row>
     <row r="81" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A81" s="24"/>
-      <c r="B81" s="25" t="s">
+      <c r="A81" s="22"/>
+      <c r="B81" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="26"/>
-      <c r="D81" s="19"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="17"/>
     </row>
     <row r="82" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
-      <c r="B82" s="25" t="s">
+      <c r="A82" s="22"/>
+      <c r="B82" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="26"/>
-      <c r="D82" s="19"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="17"/>
     </row>
     <row r="83" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A83" s="57"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="58"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="43"/>
     </row>
     <row r="84" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="49"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="56"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="41"/>
     </row>
     <row r="85" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A85" s="24"/>
-      <c r="B85" s="25" t="s">
+      <c r="A85" s="22"/>
+      <c r="B85" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="19"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="17"/>
     </row>
     <row r="86" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A86" s="24"/>
-      <c r="B86" s="25" t="s">
+      <c r="A86" s="22"/>
+      <c r="B86" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="19"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="17"/>
     </row>
     <row r="87" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
-      <c r="B87" s="25" t="s">
+      <c r="A87" s="22"/>
+      <c r="B87" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="19"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="17"/>
     </row>
     <row r="88" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
-      <c r="B88" s="25" t="s">
+      <c r="A88" s="22"/>
+      <c r="B88" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="19"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="17"/>
     </row>
     <row r="89" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A89" s="24"/>
-      <c r="B89" s="25" t="s">
+      <c r="A89" s="22"/>
+      <c r="B89" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="19"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="17"/>
     </row>
     <row r="90" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A90" s="24"/>
-      <c r="B90" s="25" t="s">
+      <c r="A90" s="22"/>
+      <c r="B90" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="19"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="17"/>
     </row>
     <row r="91" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A91" s="57"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="58"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="43"/>
     </row>
     <row r="92" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A92" s="63" t="s">
+      <c r="A92" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="48"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="41"/>
+    </row>
+    <row r="93" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A93" s="22"/>
+      <c r="B93" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A94" s="22"/>
+      <c r="B94" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A95" s="22"/>
+      <c r="B95" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="17"/>
+    </row>
+    <row r="96" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A96" s="22"/>
+      <c r="B96" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="17"/>
+    </row>
+    <row r="97" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A97" s="22"/>
+      <c r="B97" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="24"/>
+      <c r="D97" s="17"/>
+    </row>
+    <row r="98" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A98" s="22"/>
+      <c r="B98" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A99" s="42"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="43"/>
+    </row>
+    <row r="100" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A100" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B92" s="51"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="56"/>
-    </row>
-    <row r="93" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A93" s="24"/>
-      <c r="B93" s="25" t="s">
+      <c r="B100" s="50"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="20"/>
+    </row>
+    <row r="101" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A101" s="22"/>
+      <c r="B101" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="26"/>
-      <c r="D93" s="19"/>
-    </row>
-    <row r="94" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
-      <c r="B94" s="25" t="s">
+      <c r="C101" s="24"/>
+      <c r="D101" s="17"/>
+    </row>
+    <row r="102" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A102" s="22"/>
+      <c r="B102" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="26"/>
-      <c r="D94" s="19"/>
-    </row>
-    <row r="95" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A95" s="24"/>
-      <c r="B95" s="25" t="s">
+      <c r="C102" s="24"/>
+      <c r="D102" s="17"/>
+    </row>
+    <row r="103" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A103" s="22"/>
+      <c r="B103" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="26"/>
-      <c r="D95" s="19"/>
-    </row>
-    <row r="96" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
-      <c r="B96" s="25" t="s">
+      <c r="C103" s="24"/>
+      <c r="D103" s="17"/>
+    </row>
+    <row r="104" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A104" s="22"/>
+      <c r="B104" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="19"/>
-    </row>
-    <row r="97" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
-      <c r="B97" s="25" t="s">
+      <c r="C104" s="24"/>
+      <c r="D104" s="17"/>
+    </row>
+    <row r="105" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A105" s="22"/>
+      <c r="B105" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="19"/>
-    </row>
-    <row r="98" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A98" s="24"/>
-      <c r="B98" s="25" t="s">
+      <c r="C105" s="24"/>
+      <c r="D105" s="17"/>
+    </row>
+    <row r="106" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A106" s="26"/>
+      <c r="B106" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C98" s="26"/>
-      <c r="D98" s="19"/>
-    </row>
-    <row r="99" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A99" s="57"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="58"/>
-    </row>
-    <row r="100" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A100" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="22"/>
-    </row>
-    <row r="101" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A101" s="24"/>
-      <c r="B101" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="19"/>
-    </row>
-    <row r="102" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A102" s="24"/>
-      <c r="B102" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="19"/>
-    </row>
-    <row r="103" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="19"/>
-    </row>
-    <row r="104" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A104" s="24"/>
-      <c r="B104" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="19"/>
-    </row>
-    <row r="105" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A105" s="24"/>
-      <c r="B105" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="19"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="30"/>
-      <c r="B106" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="33"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="36"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A4:D4"/>
@@ -2012,9 +2025,6 @@
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2026,7 +2036,7 @@
           <x14:formula1>
             <xm:f>Feuil2!$B$3:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D24 D32</xm:sqref>
+          <xm:sqref>D24 D32 D40 D48 D56 D64 D72 D80 D88 D96 D104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7CD6CCB2-2065-4847-AA7C-81603E74AEEE}">
           <x14:formula1>
@@ -2119,22 +2129,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
